--- a/Code/Results/Cases/Case_2_219/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_219/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.24497679510836</v>
+        <v>15.4061527774565</v>
       </c>
       <c r="C2">
-        <v>12.87091138767293</v>
+        <v>14.11593552726775</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>9.958299078370421</v>
+        <v>17.37733260090663</v>
       </c>
       <c r="F2">
-        <v>23.22462763371228</v>
+        <v>35.75600207900801</v>
       </c>
       <c r="G2">
-        <v>18.61059209681077</v>
+        <v>27.20488201108558</v>
       </c>
       <c r="H2">
-        <v>8.04059802956078</v>
+        <v>14.00434511122224</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.582886872456857</v>
+        <v>7.648470302336461</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.181431624452685</v>
+        <v>12.68603526850549</v>
       </c>
       <c r="M2">
-        <v>13.57597698003642</v>
+        <v>16.38472673520936</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>12.66478450722461</v>
+        <v>21.09027059365978</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.84024403896315</v>
+        <v>14.83192185359091</v>
       </c>
       <c r="C3">
-        <v>12.61754538670198</v>
+        <v>14.04946553717104</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>10.05296978621828</v>
+        <v>17.4328929074303</v>
       </c>
       <c r="F3">
-        <v>23.02859643033089</v>
+        <v>35.87152619303483</v>
       </c>
       <c r="G3">
-        <v>18.50038352578267</v>
+        <v>27.3575832323414</v>
       </c>
       <c r="H3">
-        <v>8.150684671494046</v>
+        <v>14.06670789611541</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.518907929610394</v>
+        <v>7.633912745987269</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.992602884724384</v>
+        <v>12.67226545424522</v>
       </c>
       <c r="M3">
-        <v>12.89389161311174</v>
+        <v>16.23766372181362</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>12.78525105944104</v>
+        <v>21.2009953745339</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.9260942113623</v>
+        <v>14.46813335856349</v>
       </c>
       <c r="C4">
-        <v>12.46169585192322</v>
+        <v>14.00953775688094</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10.11578134758803</v>
+        <v>17.4692702855032</v>
       </c>
       <c r="F4">
-        <v>22.93142965791737</v>
+        <v>35.95160492497351</v>
       </c>
       <c r="G4">
-        <v>18.46675178858747</v>
+        <v>27.46202823575716</v>
       </c>
       <c r="H4">
-        <v>8.224405420831792</v>
+        <v>14.10755653212881</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.479509596990107</v>
+        <v>7.625059102307712</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.876859402274279</v>
+        <v>12.66511736767296</v>
       </c>
       <c r="M4">
-        <v>12.45865206912018</v>
+        <v>16.14804614785492</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>12.87424761088328</v>
+        <v>21.27426615550019</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.54052893659487</v>
+        <v>14.31726790073916</v>
       </c>
       <c r="C5">
-        <v>12.39817438290315</v>
+        <v>13.9934991597292</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10.1425323031267</v>
+        <v>17.484664234661</v>
       </c>
       <c r="F5">
-        <v>22.89752835747511</v>
+        <v>35.9865314651848</v>
       </c>
       <c r="G5">
-        <v>18.46124040435755</v>
+        <v>27.50726054477727</v>
       </c>
       <c r="H5">
-        <v>8.255929369490341</v>
+        <v>14.12484594775397</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.463433349147205</v>
+        <v>7.621473400852542</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.829797651691608</v>
+        <v>12.66253527196791</v>
       </c>
       <c r="M5">
-        <v>12.27733480743316</v>
+        <v>16.11172606857212</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12.91410152640661</v>
+        <v>21.30545099950261</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.47571684264743</v>
+        <v>14.29206491240742</v>
       </c>
       <c r="C6">
-        <v>12.38762776776736</v>
+        <v>13.99085027295684</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10.14704337710472</v>
+        <v>17.48725483046383</v>
       </c>
       <c r="F6">
-        <v>22.89223866708999</v>
+        <v>35.99246934401761</v>
       </c>
       <c r="G6">
-        <v>18.46080885023584</v>
+        <v>27.51493210279419</v>
       </c>
       <c r="H6">
-        <v>8.2612517846709</v>
+        <v>14.12775569780456</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.46076285526336</v>
+        <v>7.620879367039016</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.821991039818417</v>
+        <v>12.6621265598637</v>
       </c>
       <c r="M6">
-        <v>12.24699432330373</v>
+        <v>16.10570805190038</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>12.92093040896086</v>
+        <v>21.31070925446357</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.92094722160963</v>
+        <v>14.46610905718371</v>
       </c>
       <c r="C7">
-        <v>12.46083914596567</v>
+        <v>14.00932050150332</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10.11613747414873</v>
+        <v>17.46947558523466</v>
       </c>
       <c r="F7">
-        <v>22.93094958935431</v>
+        <v>35.95206667737312</v>
       </c>
       <c r="G7">
-        <v>18.46664478921705</v>
+        <v>27.46262746590378</v>
       </c>
       <c r="H7">
-        <v>8.224824636909039</v>
+        <v>14.10778709850168</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.479292862182014</v>
+        <v>7.625010653077026</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.876224213590421</v>
+        <v>12.66508120233235</v>
       </c>
       <c r="M7">
-        <v>12.45622250775907</v>
+        <v>16.14755547566285</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>12.87477081942964</v>
+        <v>21.27468135810985</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.77130681944947</v>
+        <v>15.21059738061076</v>
       </c>
       <c r="C8">
-        <v>12.78364420193023</v>
+        <v>14.09283889000743</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>9.989955290000294</v>
+        <v>17.39602055910726</v>
       </c>
       <c r="F8">
-        <v>23.15214368468558</v>
+        <v>35.79393286199828</v>
       </c>
       <c r="G8">
-        <v>18.56531894540522</v>
+        <v>27.25530548307415</v>
       </c>
       <c r="H8">
-        <v>8.077247633426436</v>
+        <v>14.02531703704963</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.560855451924705</v>
+        <v>7.643433818347319</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.116314671784956</v>
+        <v>12.68101762616362</v>
       </c>
       <c r="M8">
-        <v>13.34430301583399</v>
+        <v>16.33389576665963</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>12.70308421753719</v>
+        <v>21.12734994532261</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.99291079176794</v>
+        <v>16.57390991951987</v>
       </c>
       <c r="C9">
-        <v>13.41194985786837</v>
+        <v>14.26320504067749</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>9.780772538002543</v>
+        <v>17.26989655775607</v>
       </c>
       <c r="F9">
-        <v>23.77524234206822</v>
+        <v>35.55666564688663</v>
       </c>
       <c r="G9">
-        <v>19.04320025025905</v>
+        <v>26.93427361113246</v>
       </c>
       <c r="H9">
-        <v>7.839326319730742</v>
+        <v>13.88388132974649</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.719553424051324</v>
+        <v>7.680194365159132</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.58640628669542</v>
+        <v>12.72253401852412</v>
       </c>
       <c r="M9">
-        <v>14.94909981645208</v>
+        <v>16.70342102554571</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>12.49459036034007</v>
+        <v>20.88048806264947</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.11583860896216</v>
+        <v>17.50773938986412</v>
       </c>
       <c r="C10">
-        <v>13.86759637147545</v>
+        <v>14.39179479597714</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>9.652039146978058</v>
+        <v>17.18810874588744</v>
       </c>
       <c r="F10">
-        <v>24.35440100188511</v>
+        <v>35.42707821378682</v>
       </c>
       <c r="G10">
-        <v>19.58394353191027</v>
+        <v>26.75153155108829</v>
       </c>
       <c r="H10">
-        <v>7.70022006801327</v>
+        <v>13.79232831837282</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.834960811854607</v>
+        <v>7.707535715774289</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.92846791170895</v>
+        <v>12.75915093247197</v>
       </c>
       <c r="M10">
-        <v>16.03824824330919</v>
+        <v>16.97569512065611</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>12.43216670015265</v>
+        <v>20.72491824639261</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.02957704463105</v>
+        <v>17.91633022079394</v>
       </c>
       <c r="C11">
-        <v>14.07300073193633</v>
+        <v>14.45090675629091</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>9.599283635723701</v>
+        <v>17.1532524717835</v>
       </c>
       <c r="F11">
-        <v>24.64514491604793</v>
+        <v>35.37790096485559</v>
       </c>
       <c r="G11">
-        <v>19.87361278721625</v>
+        <v>26.68013179375797</v>
       </c>
       <c r="H11">
-        <v>7.645739831808243</v>
+        <v>13.7533610474931</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.887119044936409</v>
+        <v>7.720035015157698</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.082819931428068</v>
+        <v>12.77710355708028</v>
       </c>
       <c r="M11">
-        <v>16.51328804569334</v>
+        <v>17.09936376950794</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>12.42625978780555</v>
+        <v>20.65978314902862</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.36818867202713</v>
+        <v>18.06861716882271</v>
       </c>
       <c r="C12">
-        <v>14.15046909397786</v>
+        <v>14.47336824154272</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>9.580176731736573</v>
+        <v>17.14039039634902</v>
       </c>
       <c r="F12">
-        <v>24.7592174334893</v>
+        <v>35.36068844264499</v>
       </c>
       <c r="G12">
-        <v>19.98972226655948</v>
+        <v>26.65479698103813</v>
       </c>
       <c r="H12">
-        <v>7.626471020134417</v>
+        <v>13.73899065867806</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.906814079360463</v>
+        <v>7.724776002003317</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.141048611872332</v>
+        <v>12.78408495942314</v>
       </c>
       <c r="M12">
-        <v>16.69018420758012</v>
+        <v>17.14613596888228</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>12.42748782420158</v>
+        <v>20.63593149197057</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.29559054734282</v>
+        <v>18.03592939726093</v>
       </c>
       <c r="C13">
-        <v>14.1337995186806</v>
+        <v>14.4685275150195</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>9.584252438885201</v>
+        <v>17.14314548511341</v>
       </c>
       <c r="F13">
-        <v>24.7344724517895</v>
+        <v>35.36433269801251</v>
       </c>
       <c r="G13">
-        <v>19.96442886872585</v>
+        <v>26.66017731129526</v>
       </c>
       <c r="H13">
-        <v>7.630558734862077</v>
+        <v>13.7420684228089</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.902575007711291</v>
+        <v>7.723754617313077</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.128518462405026</v>
+        <v>12.78257329610082</v>
       </c>
       <c r="M13">
-        <v>16.65222019028311</v>
+        <v>17.13606582857831</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>12.42706558349068</v>
+        <v>20.64103213442915</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.05758271953763</v>
+        <v>17.92890836825293</v>
       </c>
       <c r="C14">
-        <v>14.07938063063374</v>
+        <v>14.45275319775049</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>9.597694041439636</v>
+        <v>17.15218754573755</v>
       </c>
       <c r="F14">
-        <v>24.65444983781457</v>
+        <v>35.37645660104224</v>
       </c>
       <c r="G14">
-        <v>19.88303593393934</v>
+        <v>26.67801326970192</v>
       </c>
       <c r="H14">
-        <v>7.644126708704311</v>
+        <v>13.75217105632054</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.888740531994465</v>
+        <v>7.720424909456193</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.087615089970683</v>
+        <v>12.77767426947507</v>
       </c>
       <c r="M14">
-        <v>16.52790160358753</v>
+        <v>17.1032130942892</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>12.42629006063568</v>
+        <v>20.65780453386639</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.91083446398252</v>
+        <v>17.86303455565788</v>
       </c>
       <c r="C15">
-        <v>14.04600536982294</v>
+        <v>14.44310066706836</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>9.606041868326544</v>
+        <v>17.1577699697289</v>
       </c>
       <c r="F15">
-        <v>24.605952512155</v>
+        <v>35.38406656922813</v>
       </c>
       <c r="G15">
-        <v>19.83401951388512</v>
+        <v>26.68916051445493</v>
       </c>
       <c r="H15">
-        <v>7.652617791404396</v>
+        <v>13.75840944306252</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.88025899892336</v>
+        <v>7.718386347224452</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.062530660761288</v>
+        <v>12.77469722795087</v>
       </c>
       <c r="M15">
-        <v>16.45136199284448</v>
+        <v>17.08308132002171</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>12.42627308760188</v>
+        <v>20.66818416688665</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.05508379580224</v>
+        <v>17.48070136645498</v>
       </c>
       <c r="C16">
-        <v>13.85413113621751</v>
+        <v>14.38794310275688</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>9.655606660519775</v>
+        <v>17.1904339096927</v>
       </c>
       <c r="F16">
-        <v>24.33595385066706</v>
+        <v>35.43048911395302</v>
       </c>
       <c r="G16">
-        <v>19.56590467417228</v>
+        <v>26.75643511491248</v>
       </c>
       <c r="H16">
-        <v>7.703965624232538</v>
+        <v>13.79492887895691</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.831544668122454</v>
+        <v>7.706720004192364</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.918351837069368</v>
+        <v>12.7580034873221</v>
       </c>
       <c r="M16">
-        <v>16.00678733191428</v>
+        <v>16.9676065909744</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>12.43302503752059</v>
+        <v>20.7292886441676</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.51684460781993</v>
+        <v>17.2419196191434</v>
       </c>
       <c r="C17">
-        <v>13.73591002655777</v>
+        <v>14.35425531236459</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>9.687524655377212</v>
+        <v>17.21107348648617</v>
       </c>
       <c r="F17">
-        <v>24.17734657785149</v>
+        <v>35.46147425841721</v>
       </c>
       <c r="G17">
-        <v>19.41272469285458</v>
+        <v>26.80072188787504</v>
       </c>
       <c r="H17">
-        <v>7.737785994117368</v>
+        <v>13.81801908114624</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.801567454232592</v>
+        <v>7.69957808805857</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.829551405176355</v>
+        <v>12.74809200754267</v>
       </c>
       <c r="M17">
-        <v>15.72878111185154</v>
+        <v>16.89669564413244</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>12.44309177698297</v>
+        <v>20.76821975500494</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.20236525277514</v>
+        <v>17.10305800184155</v>
       </c>
       <c r="C18">
-        <v>13.66773862528149</v>
+        <v>14.33493764611569</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>9.706427253536344</v>
+        <v>17.22316599825544</v>
       </c>
       <c r="F18">
-        <v>24.08868564330712</v>
+        <v>35.48021571067974</v>
       </c>
       <c r="G18">
-        <v>19.32872606542125</v>
+        <v>26.82729769038612</v>
       </c>
       <c r="H18">
-        <v>7.758060675408358</v>
+        <v>13.83155225711579</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.784293643606024</v>
+        <v>7.69547610882346</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.778359947302784</v>
+        <v>12.74251331301176</v>
       </c>
       <c r="M18">
-        <v>15.56695950163619</v>
+        <v>16.85589348093995</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>12.45098491789982</v>
+        <v>20.79114203239328</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.09504439787979</v>
+        <v>17.05578414236977</v>
       </c>
       <c r="C19">
-        <v>13.64462855035764</v>
+        <v>14.32840743952713</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>9.712919772508689</v>
+        <v>17.2272983202356</v>
       </c>
       <c r="F19">
-        <v>24.05910547061666</v>
+        <v>35.48671904292181</v>
       </c>
       <c r="G19">
-        <v>19.30098595108063</v>
+        <v>26.83648478489569</v>
       </c>
       <c r="H19">
-        <v>7.765063712015754</v>
+        <v>13.83617768559645</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.778439804345538</v>
+        <v>7.694088288675332</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.761008821393172</v>
+        <v>12.74064553188851</v>
       </c>
       <c r="M19">
-        <v>15.51184169619781</v>
+        <v>16.84207676374776</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>12.45401155024316</v>
+        <v>20.79899407010635</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.57464751982591</v>
+        <v>17.26749654258399</v>
       </c>
       <c r="C20">
-        <v>13.74851318481497</v>
+        <v>14.35783544700362</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>9.684070356466517</v>
+        <v>17.20885348212669</v>
       </c>
       <c r="F20">
-        <v>24.19396463287727</v>
+        <v>35.4580806255388</v>
       </c>
       <c r="G20">
-        <v>19.42860482880234</v>
+        <v>26.79589318869128</v>
       </c>
       <c r="H20">
-        <v>7.734099998972119</v>
+        <v>13.81553497600629</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.804761914324735</v>
+        <v>7.700337758313747</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.839016656132353</v>
+        <v>12.74913448421504</v>
       </c>
       <c r="M20">
-        <v>15.75857448699695</v>
+        <v>16.90424612415142</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>12.44180082586991</v>
+        <v>20.76402058075967</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.12769164406891</v>
+        <v>17.96040996716695</v>
       </c>
       <c r="C21">
-        <v>14.09537362875674</v>
+        <v>14.45738449748349</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>9.593721997253125</v>
+        <v>17.14952252552896</v>
       </c>
       <c r="F21">
-        <v>24.67784622127566</v>
+        <v>35.37285722085095</v>
       </c>
       <c r="G21">
-        <v>19.90676796193738</v>
+        <v>26.67272808160624</v>
       </c>
       <c r="H21">
-        <v>7.640103708406166</v>
+        <v>13.7491931992754</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.892805631559859</v>
+        <v>7.721402723092085</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.099635706930332</v>
+        <v>12.77910828788753</v>
       </c>
       <c r="M21">
-        <v>16.5644985225121</v>
+        <v>17.11286457041911</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>12.42642198210225</v>
+        <v>20.65285596595513</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.09959226901019</v>
+        <v>18.39902176367073</v>
       </c>
       <c r="C22">
-        <v>14.32022019871843</v>
+        <v>14.5228893860584</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>9.539766112015913</v>
+        <v>17.11271173134918</v>
       </c>
       <c r="F22">
-        <v>25.01726991199804</v>
+        <v>35.32537811869073</v>
       </c>
       <c r="G22">
-        <v>20.25671710192153</v>
+        <v>26.60216423227839</v>
       </c>
       <c r="H22">
-        <v>7.586658265086052</v>
+        <v>13.70808310797572</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.950016961465145</v>
+        <v>7.735214692935284</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.268660709379834</v>
+        <v>12.79976378976082</v>
       </c>
       <c r="M22">
-        <v>17.07376732327678</v>
+        <v>17.24885406087682</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>12.43667250555536</v>
+        <v>20.58494727664401</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.58478903166756</v>
+        <v>18.16626142366944</v>
       </c>
       <c r="C23">
-        <v>14.20039797561429</v>
+        <v>14.48789140095085</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>9.568085074724891</v>
+        <v>17.13217870565317</v>
       </c>
       <c r="F23">
-        <v>24.83397861278663</v>
+        <v>35.34996518195012</v>
       </c>
       <c r="G23">
-        <v>20.06648293462585</v>
+        <v>26.63891166703694</v>
       </c>
       <c r="H23">
-        <v>7.614418693819934</v>
+        <v>13.72981856504807</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.919514664547917</v>
+        <v>7.727839246834513</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.17858067121683</v>
+        <v>12.78864310360902</v>
       </c>
       <c r="M23">
-        <v>16.80357170701251</v>
+        <v>17.17631653288118</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>12.42926820915149</v>
+        <v>20.62075624195183</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.54853052268859</v>
+        <v>17.25593813739956</v>
       </c>
       <c r="C24">
-        <v>13.74281593053033</v>
+        <v>14.35621671184775</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>9.685630326697334</v>
+        <v>17.20985644038869</v>
       </c>
       <c r="F24">
-        <v>24.18644375095139</v>
+        <v>35.45961199766047</v>
       </c>
       <c r="G24">
-        <v>19.42141276369683</v>
+        <v>26.79807277243605</v>
       </c>
       <c r="H24">
-        <v>7.735763856509549</v>
+        <v>13.81665723532079</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.803317821441971</v>
+        <v>7.699994298833837</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.834737845692972</v>
+        <v>12.74866280790147</v>
       </c>
       <c r="M24">
-        <v>15.74511110280797</v>
+        <v>16.90083265726703</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>12.44237792379371</v>
+        <v>20.76591734479065</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.16453631153649</v>
+        <v>16.21643387254255</v>
       </c>
       <c r="C25">
-        <v>13.24281340681726</v>
+        <v>14.21647185860149</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>9.833104894610035</v>
+        <v>17.3021030467803</v>
       </c>
       <c r="F25">
-        <v>23.5857260708675</v>
+        <v>35.61301944965331</v>
       </c>
       <c r="G25">
-        <v>18.88161841397212</v>
+        <v>27.01186192647678</v>
       </c>
       <c r="H25">
-        <v>7.89775620714437</v>
+        <v>13.91997242807043</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.676799872179892</v>
+        <v>7.670187262271609</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.459620222213042</v>
+        <v>12.71021800375828</v>
       </c>
       <c r="M25">
-        <v>14.53036606147823</v>
+        <v>16.60319208306498</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>12.53598744433967</v>
+        <v>20.94275191450809</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_219/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_219/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.4061527774565</v>
+        <v>21.24497679510836</v>
       </c>
       <c r="C2">
-        <v>14.11593552726775</v>
+        <v>12.87091138767281</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>17.37733260090663</v>
+        <v>9.95829907837042</v>
       </c>
       <c r="F2">
-        <v>35.75600207900801</v>
+        <v>23.22462763371225</v>
       </c>
       <c r="G2">
-        <v>27.20488201108558</v>
+        <v>18.6105920968108</v>
       </c>
       <c r="H2">
-        <v>14.00434511122224</v>
+        <v>8.040598029560719</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.648470302336461</v>
+        <v>5.582886872456834</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>12.68603526850549</v>
+        <v>8.181431624452657</v>
       </c>
       <c r="M2">
-        <v>16.38472673520936</v>
+        <v>13.57597698003642</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>21.09027059365978</v>
+        <v>12.66478450722457</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.83192185359091</v>
+        <v>19.84024403896314</v>
       </c>
       <c r="C3">
-        <v>14.04946553717104</v>
+        <v>12.61754538670198</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>17.4328929074303</v>
+        <v>10.05296978621829</v>
       </c>
       <c r="F3">
-        <v>35.87152619303483</v>
+        <v>23.02859643033096</v>
       </c>
       <c r="G3">
-        <v>27.3575832323414</v>
+        <v>18.50038352578267</v>
       </c>
       <c r="H3">
-        <v>14.06670789611541</v>
+        <v>8.150684671494046</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.633912745987269</v>
+        <v>5.518907929610361</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>12.67226545424522</v>
+        <v>7.992602884724363</v>
       </c>
       <c r="M3">
-        <v>16.23766372181362</v>
+        <v>12.89389161311174</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>21.2009953745339</v>
+        <v>12.78525105944105</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.46813335856349</v>
+        <v>18.92609421136222</v>
       </c>
       <c r="C4">
-        <v>14.00953775688094</v>
+        <v>12.46169585192347</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>17.4692702855032</v>
+        <v>10.11578134758796</v>
       </c>
       <c r="F4">
-        <v>35.95160492497351</v>
+        <v>22.93142965791746</v>
       </c>
       <c r="G4">
-        <v>27.46202823575716</v>
+        <v>18.46675178858763</v>
       </c>
       <c r="H4">
-        <v>14.10755653212881</v>
+        <v>8.2244054208319</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.625059102307712</v>
+        <v>5.479509596990175</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>12.66511736767296</v>
+        <v>7.876859402274191</v>
       </c>
       <c r="M4">
-        <v>16.14804614785492</v>
+        <v>12.45865206912019</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>21.27426615550019</v>
+        <v>12.87424761088346</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.31726790073916</v>
+        <v>18.54052893659483</v>
       </c>
       <c r="C5">
-        <v>13.9934991597292</v>
+        <v>12.39817438290339</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>17.484664234661</v>
+        <v>10.14253230312669</v>
       </c>
       <c r="F5">
-        <v>35.9865314651848</v>
+        <v>22.89752835747514</v>
       </c>
       <c r="G5">
-        <v>27.50726054477727</v>
+        <v>18.46124040435762</v>
       </c>
       <c r="H5">
-        <v>14.12484594775397</v>
+        <v>8.255929369490341</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.621473400852542</v>
+        <v>5.463433349147142</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>12.66253527196791</v>
+        <v>7.82979765169151</v>
       </c>
       <c r="M5">
-        <v>16.11172606857212</v>
+        <v>12.27733480743314</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>21.30545099950261</v>
+        <v>12.9141015264066</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.29206491240742</v>
+        <v>18.47571684264742</v>
       </c>
       <c r="C6">
-        <v>13.99085027295684</v>
+        <v>12.38762776776725</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>17.48725483046383</v>
+        <v>10.14704337710466</v>
       </c>
       <c r="F6">
-        <v>35.99246934401761</v>
+        <v>22.89223866709</v>
       </c>
       <c r="G6">
-        <v>27.51493210279419</v>
+        <v>18.46080885023594</v>
       </c>
       <c r="H6">
-        <v>14.12775569780456</v>
+        <v>8.261251784670964</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.620879367039016</v>
+        <v>5.460762855263359</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>12.6621265598637</v>
+        <v>7.821991039818419</v>
       </c>
       <c r="M6">
-        <v>16.10570805190038</v>
+        <v>12.24699432330373</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>21.31070925446357</v>
+        <v>12.92093040896092</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.46610905718371</v>
+        <v>18.92094722160964</v>
       </c>
       <c r="C7">
-        <v>14.00932050150332</v>
+        <v>12.46083914596556</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>17.46947558523466</v>
+        <v>10.11613747414866</v>
       </c>
       <c r="F7">
-        <v>35.95206667737312</v>
+        <v>22.93094958935421</v>
       </c>
       <c r="G7">
-        <v>27.46262746590378</v>
+        <v>18.46664478921677</v>
       </c>
       <c r="H7">
-        <v>14.10778709850168</v>
+        <v>8.224824636908981</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.625010653077026</v>
+        <v>5.479292862181921</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>12.66508120233235</v>
+        <v>7.876224213590409</v>
       </c>
       <c r="M7">
-        <v>16.14755547566285</v>
+        <v>12.45622250775905</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>21.27468135810985</v>
+        <v>12.8747708194295</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.21059738061076</v>
+        <v>20.7713068194495</v>
       </c>
       <c r="C8">
-        <v>14.09283889000743</v>
+        <v>12.78364420193012</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>17.39602055910726</v>
+        <v>9.989955290000234</v>
       </c>
       <c r="F8">
-        <v>35.79393286199828</v>
+        <v>23.15214368468551</v>
       </c>
       <c r="G8">
-        <v>27.25530548307415</v>
+        <v>18.56531894540512</v>
       </c>
       <c r="H8">
-        <v>14.02531703704963</v>
+        <v>8.077247633426431</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.643433818347319</v>
+        <v>5.560855451924677</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>12.68101762616362</v>
+        <v>8.11631467178491</v>
       </c>
       <c r="M8">
-        <v>16.33389576665963</v>
+        <v>13.34430301583397</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>21.12734994532261</v>
+        <v>12.70308421753715</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.57390991951987</v>
+        <v>23.99291079176797</v>
       </c>
       <c r="C9">
-        <v>14.26320504067749</v>
+        <v>13.41194985786838</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>17.26989655775607</v>
+        <v>9.780772538002607</v>
       </c>
       <c r="F9">
-        <v>35.55666564688663</v>
+        <v>23.77524234206828</v>
       </c>
       <c r="G9">
-        <v>26.93427361113246</v>
+        <v>19.04320025025899</v>
       </c>
       <c r="H9">
-        <v>13.88388132974649</v>
+        <v>7.839326319730751</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.680194365159132</v>
+        <v>5.719553424051236</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>12.72253401852412</v>
+        <v>8.586406286695471</v>
       </c>
       <c r="M9">
-        <v>16.70342102554571</v>
+        <v>14.94909981645208</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>20.88048806264947</v>
+        <v>12.49459036034003</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.50773938986412</v>
+        <v>26.11583860896215</v>
       </c>
       <c r="C10">
-        <v>14.39179479597714</v>
+        <v>13.86759637147522</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>17.18810874588744</v>
+        <v>9.65203914697792</v>
       </c>
       <c r="F10">
-        <v>35.42707821378682</v>
+        <v>24.35440100188507</v>
       </c>
       <c r="G10">
-        <v>26.75153155108829</v>
+        <v>19.58394353191022</v>
       </c>
       <c r="H10">
-        <v>13.79232831837282</v>
+        <v>7.700220068013294</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.707535715774289</v>
+        <v>5.834960811854615</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>12.75915093247197</v>
+        <v>8.928467911708983</v>
       </c>
       <c r="M10">
-        <v>16.97569512065611</v>
+        <v>16.0382482433092</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>20.72491824639261</v>
+        <v>12.43216670015267</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.91633022079394</v>
+        <v>27.02957704463106</v>
       </c>
       <c r="C11">
-        <v>14.45090675629091</v>
+        <v>14.07300073193614</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>17.1532524717835</v>
+        <v>9.59928363572376</v>
       </c>
       <c r="F11">
-        <v>35.37790096485559</v>
+        <v>24.64514491604802</v>
       </c>
       <c r="G11">
-        <v>26.68013179375797</v>
+        <v>19.87361278721644</v>
       </c>
       <c r="H11">
-        <v>13.7533610474931</v>
+        <v>7.645739831808142</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.720035015157698</v>
+        <v>5.887119044936409</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>12.77710355708028</v>
+        <v>9.082819931428125</v>
       </c>
       <c r="M11">
-        <v>17.09936376950794</v>
+        <v>16.51328804569336</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>20.65978314902862</v>
+        <v>12.4262597878056</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.06861716882271</v>
+        <v>27.36818867202717</v>
       </c>
       <c r="C12">
-        <v>14.47336824154272</v>
+        <v>14.15046909397782</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>17.14039039634902</v>
+        <v>9.580176731736458</v>
       </c>
       <c r="F12">
-        <v>35.36068844264499</v>
+        <v>24.75921743348928</v>
       </c>
       <c r="G12">
-        <v>26.65479698103813</v>
+        <v>19.98972226655952</v>
       </c>
       <c r="H12">
-        <v>13.73899065867806</v>
+        <v>7.626471020134382</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.724776002003317</v>
+        <v>5.906814079360374</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>12.78408495942314</v>
+        <v>9.14104861187224</v>
       </c>
       <c r="M12">
-        <v>17.14613596888228</v>
+        <v>16.69018420758011</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>20.63593149197057</v>
+        <v>12.42748782420157</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.03592939726093</v>
+        <v>27.29559054734284</v>
       </c>
       <c r="C13">
-        <v>14.4685275150195</v>
+        <v>14.13379951868051</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>17.14314548511341</v>
+        <v>9.584252438885262</v>
       </c>
       <c r="F13">
-        <v>35.36433269801251</v>
+        <v>24.73447245178947</v>
       </c>
       <c r="G13">
-        <v>26.66017731129526</v>
+        <v>19.96442886872578</v>
       </c>
       <c r="H13">
-        <v>13.7420684228089</v>
+        <v>7.630558734861976</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.723754617313077</v>
+        <v>5.902575007711294</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>12.78257329610082</v>
+        <v>9.12851846240507</v>
       </c>
       <c r="M13">
-        <v>17.13606582857831</v>
+        <v>16.65222019028312</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>20.64103213442915</v>
+        <v>12.4270655834906</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.92890836825293</v>
+        <v>27.05758271953762</v>
       </c>
       <c r="C14">
-        <v>14.45275319775049</v>
+        <v>14.07938063063344</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>17.15218754573755</v>
+        <v>9.597694041439579</v>
       </c>
       <c r="F14">
-        <v>35.37645660104224</v>
+        <v>24.65444983781457</v>
       </c>
       <c r="G14">
-        <v>26.67801326970192</v>
+        <v>19.88303593393942</v>
       </c>
       <c r="H14">
-        <v>13.75217105632054</v>
+        <v>7.644126708704356</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.720424909456193</v>
+        <v>5.888740531994467</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>12.77767426947507</v>
+        <v>9.087615089970717</v>
       </c>
       <c r="M14">
-        <v>17.1032130942892</v>
+        <v>16.52790160358753</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>20.65780453386639</v>
+        <v>12.42629006063572</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.86303455565788</v>
+        <v>26.9108344639826</v>
       </c>
       <c r="C15">
-        <v>14.44310066706836</v>
+        <v>14.04600536982276</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>17.1577699697289</v>
+        <v>9.606041868326541</v>
       </c>
       <c r="F15">
-        <v>35.38406656922813</v>
+        <v>24.6059525121549</v>
       </c>
       <c r="G15">
-        <v>26.68916051445493</v>
+        <v>19.83401951388503</v>
       </c>
       <c r="H15">
-        <v>13.75840944306252</v>
+        <v>7.652617791404386</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.718386347224452</v>
+        <v>5.880258998923425</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>12.77469722795087</v>
+        <v>9.06253066076129</v>
       </c>
       <c r="M15">
-        <v>17.08308132002171</v>
+        <v>16.45136199284448</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>20.66818416688665</v>
+        <v>12.42627308760183</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.48070136645498</v>
+        <v>26.05508379580227</v>
       </c>
       <c r="C16">
-        <v>14.38794310275688</v>
+        <v>13.85413113621741</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>17.1904339096927</v>
+        <v>9.655606660519654</v>
       </c>
       <c r="F16">
-        <v>35.43048911395302</v>
+        <v>24.33595385066699</v>
       </c>
       <c r="G16">
-        <v>26.75643511491248</v>
+        <v>19.5659046741723</v>
       </c>
       <c r="H16">
-        <v>13.79492887895691</v>
+        <v>7.703965624232438</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.706720004192364</v>
+        <v>5.83154466812245</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>12.7580034873221</v>
+        <v>8.918351837069354</v>
       </c>
       <c r="M16">
-        <v>16.9676065909744</v>
+        <v>16.00678733191426</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>20.7292886441676</v>
+        <v>12.43302503752059</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.2419196191434</v>
+        <v>25.51684460781994</v>
       </c>
       <c r="C17">
-        <v>14.35425531236459</v>
+        <v>13.73591002655781</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>17.21107348648617</v>
+        <v>9.68752465537732</v>
       </c>
       <c r="F17">
-        <v>35.46147425841721</v>
+        <v>24.17734657785158</v>
       </c>
       <c r="G17">
-        <v>26.80072188787504</v>
+        <v>19.41272469285448</v>
       </c>
       <c r="H17">
-        <v>13.81801908114624</v>
+        <v>7.737785994117302</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.69957808805857</v>
+        <v>5.801567454232508</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>12.74809200754267</v>
+        <v>8.829551405176469</v>
       </c>
       <c r="M17">
-        <v>16.89669564413244</v>
+        <v>15.72878111185157</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>20.76821975500494</v>
+        <v>12.44309177698291</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.10305800184155</v>
+        <v>25.20236525277511</v>
       </c>
       <c r="C18">
-        <v>14.33493764611569</v>
+        <v>13.66773862528138</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>17.22316599825544</v>
+        <v>9.706427253536402</v>
       </c>
       <c r="F18">
-        <v>35.48021571067974</v>
+        <v>24.08868564330722</v>
       </c>
       <c r="G18">
-        <v>26.82729769038612</v>
+        <v>19.32872606542136</v>
       </c>
       <c r="H18">
-        <v>13.83155225711579</v>
+        <v>7.758060675408378</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.69547610882346</v>
+        <v>5.784293643606052</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>12.74251331301176</v>
+        <v>8.77835994730278</v>
       </c>
       <c r="M18">
-        <v>16.85589348093995</v>
+        <v>15.56695950163621</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>20.79114203239328</v>
+        <v>12.45098491789991</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.05578414236977</v>
+        <v>25.09504439787972</v>
       </c>
       <c r="C19">
-        <v>14.32840743952713</v>
+        <v>13.64462855035774</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>17.2272983202356</v>
+        <v>9.712919772508686</v>
       </c>
       <c r="F19">
-        <v>35.48671904292181</v>
+        <v>24.05910547061677</v>
       </c>
       <c r="G19">
-        <v>26.83648478489569</v>
+        <v>19.30098595108076</v>
       </c>
       <c r="H19">
-        <v>13.83617768559645</v>
+        <v>7.76506371201581</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.694088288675332</v>
+        <v>5.778439804345474</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>12.74064553188851</v>
+        <v>8.761008821393153</v>
       </c>
       <c r="M19">
-        <v>16.84207676374776</v>
+        <v>15.5118416961978</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>20.79899407010635</v>
+        <v>12.45401155024322</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.26749654258399</v>
+        <v>25.57464751982585</v>
       </c>
       <c r="C20">
-        <v>14.35783544700362</v>
+        <v>13.748513184815</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>17.20885348212669</v>
+        <v>9.684070356466506</v>
       </c>
       <c r="F20">
-        <v>35.4580806255388</v>
+        <v>24.19396463287734</v>
       </c>
       <c r="G20">
-        <v>26.79589318869128</v>
+        <v>19.42860482880247</v>
       </c>
       <c r="H20">
-        <v>13.81553497600629</v>
+        <v>7.734099998972173</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.700337758313747</v>
+        <v>5.804761914324728</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>12.74913448421504</v>
+        <v>8.83901665613234</v>
       </c>
       <c r="M20">
-        <v>16.90424612415142</v>
+        <v>15.75857448699695</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>20.76402058075967</v>
+        <v>12.44180082586999</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.96040996716695</v>
+        <v>27.12769164406889</v>
       </c>
       <c r="C21">
-        <v>14.45738449748349</v>
+        <v>14.09537362875665</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>17.14952252552896</v>
+        <v>9.593721997253004</v>
       </c>
       <c r="F21">
-        <v>35.37285722085095</v>
+        <v>24.67784622127567</v>
       </c>
       <c r="G21">
-        <v>26.67272808160624</v>
+        <v>19.90676796193746</v>
       </c>
       <c r="H21">
-        <v>13.7491931992754</v>
+        <v>7.640103708406304</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.721402723092085</v>
+        <v>5.892805631559863</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>12.77910828788753</v>
+        <v>9.099635706930281</v>
       </c>
       <c r="M21">
-        <v>17.11286457041911</v>
+        <v>16.56449852251209</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>20.65285596595513</v>
+        <v>12.42642198210233</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.39902176367073</v>
+        <v>28.09959226901022</v>
       </c>
       <c r="C22">
-        <v>14.5228893860584</v>
+        <v>14.32022019871841</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>17.11271173134918</v>
+        <v>9.539766112015919</v>
       </c>
       <c r="F22">
-        <v>35.32537811869073</v>
+        <v>25.01726991199799</v>
       </c>
       <c r="G22">
-        <v>26.60216423227839</v>
+        <v>20.25671710192149</v>
       </c>
       <c r="H22">
-        <v>13.70808310797572</v>
+        <v>7.58665826508599</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.735214692935284</v>
+        <v>5.950016961465144</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>12.79976378976082</v>
+        <v>9.268660709379851</v>
       </c>
       <c r="M22">
-        <v>17.24885406087682</v>
+        <v>17.07376732327677</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>20.58494727664401</v>
+        <v>12.43667250555528</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.16626142366944</v>
+        <v>27.58478903166755</v>
       </c>
       <c r="C23">
-        <v>14.48789140095085</v>
+        <v>14.20039797561405</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>17.13217870565317</v>
+        <v>9.568085074724779</v>
       </c>
       <c r="F23">
-        <v>35.34996518195012</v>
+        <v>24.83397861278654</v>
       </c>
       <c r="G23">
-        <v>26.63891166703694</v>
+        <v>20.06648293462584</v>
       </c>
       <c r="H23">
-        <v>13.72981856504807</v>
+        <v>7.614418693819913</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.727839246834513</v>
+        <v>5.919514664547898</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>12.78864310360902</v>
+        <v>9.178580671216851</v>
       </c>
       <c r="M23">
-        <v>17.17631653288118</v>
+        <v>16.80357170701253</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>20.62075624195183</v>
+        <v>12.42926820915153</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.25593813739956</v>
+        <v>25.54853052268854</v>
       </c>
       <c r="C24">
-        <v>14.35621671184775</v>
+        <v>13.74281593053031</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>17.20985644038869</v>
+        <v>9.68563032669727</v>
       </c>
       <c r="F24">
-        <v>35.45961199766047</v>
+        <v>24.1864437509514</v>
       </c>
       <c r="G24">
-        <v>26.79807277243605</v>
+        <v>19.42141276369685</v>
       </c>
       <c r="H24">
-        <v>13.81665723532079</v>
+        <v>7.735763856509599</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.699994298833837</v>
+        <v>5.803317821442032</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>12.74866280790147</v>
+        <v>8.834737845692942</v>
       </c>
       <c r="M24">
-        <v>16.90083265726703</v>
+        <v>15.74511110280797</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>20.76591734479065</v>
+        <v>12.4423779237938</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.21643387254255</v>
+        <v>23.16453631153651</v>
       </c>
       <c r="C25">
-        <v>14.21647185860149</v>
+        <v>13.24281340681726</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>17.3021030467803</v>
+        <v>9.833104894609965</v>
       </c>
       <c r="F25">
-        <v>35.61301944965331</v>
+        <v>23.58572607086739</v>
       </c>
       <c r="G25">
-        <v>27.01186192647678</v>
+        <v>18.88161841397209</v>
       </c>
       <c r="H25">
-        <v>13.91997242807043</v>
+        <v>7.897756207144363</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.670187262271609</v>
+        <v>5.676799872179923</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>12.71021800375828</v>
+        <v>8.459620222213042</v>
       </c>
       <c r="M25">
-        <v>16.60319208306498</v>
+        <v>14.53036606147822</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>20.94275191450809</v>
+        <v>12.53598744433966</v>
       </c>
     </row>
   </sheetData>
